--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_06_end.xlsx
@@ -552,11 +552,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Don’t forget why we formed "Gavial's Will"!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  "Gavial's Will" is not just a tribe. It is an alliance dedicated to the vision of Gavial as the Great Chief!
+    <t xml:space="preserve">[name="???"]  Don’t forget why we formed 'Gavial's Will'!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  'Gavial's Will' is not just a tribe. It is an alliance dedicated to the vision of Gavial as the Great Chief!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_06_end.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_06_end.xlsx
@@ -516,11 +516,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Clan Leader B"]  The truth is Zumama’s managed to drum up a formidable front. If I weren’t with Gavial, I might have gone to Zumama myself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Doesn’t matter.
+    <t xml:space="preserve">[name="Clan Leader B"]  The truth is Zumama's managed to drum up a formidable front. If I weren't with Gavial, I might have gone to Zumama myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Doesn't matter.
 </t>
   </si>
   <si>
@@ -536,7 +536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Gavial can definitely beat Zumama’s giant machine. Then, I will become the Great Chief and force Gavial to stay.
+    <t xml:space="preserve">[name="???"]  Gavial can definitely beat Zumama's giant machine. Then, I will become the Great Chief and force Gavial to stay.
 </t>
   </si>
   <si>
@@ -552,7 +552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Don’t forget why we formed 'Gavial's Will'!
+    <t xml:space="preserve">[name="???"]  Don't forget why we formed 'Gavial's Will'!
 </t>
   </si>
   <si>
@@ -560,23 +560,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Clan Leader B"]  I agree with Tomimi. I’ll only recognize Gavial as the Great Chief.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Clan Leader A"]  That’s right, Gavial should be the one to lead us!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Clan Leader C"]  Hah, if I disagreed I wouldn’t be here either!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Peta"]  ...Peta doesn’t like it, but Peta will follow.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Alright, you head over to Zumama’s tribe and wait outside for me, got it?
+    <t xml:space="preserve">[name="Clan Leader B"]  I agree with Tomimi. I'll only recognize Gavial as the Great Chief.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Clan Leader A"]  That's right, Gavial should be the one to lead us!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Clan Leader C"]  Hah, if I disagreed I wouldn't be here either!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Peta"]  ...Peta doesn't like it, but Peta will follow.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Alright, you head over to Zumama's tribe and wait outside for me, got it?
 </t>
   </si>
   <si>
@@ -612,11 +612,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  Gotta hand it to her, she’s not bad in a fight, didn’t go down easy. So I brought her along. I figured you could help me ask why she wanted to fight me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  It’s Kemar. She probably just thought you looked strong. She just loves fighting.
+    <t xml:space="preserve">[name="Blaze"]  Gotta hand it to her, she's not bad in a fight, didn't go down easy. So I brought her along. I figured you could help me ask why she wanted to fight me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  It's Kemar. She probably just thought you looked strong. She just loves fighting.
 </t>
   </si>
   <si>
@@ -624,7 +624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I don’t love fighting. I’m just a hands-on problem solver.
+    <t xml:space="preserve">[name="Gavial"]  I don't love fighting. I'm just a hands-on problem solver.
 </t>
   </si>
   <si>
@@ -656,7 +656,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  Hey, Gavial. What’s she doing? What’s with this bowing? !
+    <t xml:space="preserve">[name="Blaze"]  Hey, Gavial. What's she doing? What's with this bowing? !
 </t>
   </si>
   <si>
@@ -668,7 +668,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Flint"]  I’m not interested in you anymore, Gavial. Looks like you can talk to her, so please, ask her to teach me.
+    <t xml:space="preserve">[name="Flint"]  I'm not interested in you anymore, Gavial. Looks like you can talk to her, so please, ask her to teach me.
 </t>
   </si>
   <si>
@@ -680,15 +680,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I guess she thinks you’re strong, so she wants to become your disciple or something.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  ...Doctor, what do I do?! I’ve never been in a situation like this before!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="It’s up to you.;......;Nothing to do with me.",values="1;2;3")]
+    <t xml:space="preserve">[name="Gavial"]  I guess she thinks you're strong, so she wants to become your disciple or something.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  ...Doctor, what do I do?! I've never been in a situation like this before!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="It's up to you.;......;Nothing to do with me.",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -712,19 +712,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Doctor, why don’t you explain it to Blaze?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  She’ll let her people get Oripathy just to build her machines?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  I won’t stand by and let that happen.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  What are we waiting for, Doctor? Let’s go!
+    <t xml:space="preserve">[name="Gavial"]  Doctor, why don't you explain it to Blaze?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  She'll let her people get Oripathy just to build her machines?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  I won't stand by and let that happen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  What are we waiting for, Doctor? Let's go!
 </t>
   </si>
   <si>
